--- a/CASUAL/LA TICC/MAMARIL JOSEFINA PEREY.xlsx
+++ b/CASUAL/LA TICC/MAMARIL JOSEFINA PEREY.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
   <si>
     <t>PERIOD</t>
   </si>
@@ -283,6 +283,30 @@
   </si>
   <si>
     <t>UT(0-0-38)</t>
+  </si>
+  <si>
+    <t>UT(0-4-10)</t>
+  </si>
+  <si>
+    <t>UT(0-0-30)</t>
+  </si>
+  <si>
+    <t>UT(0-4-3)</t>
+  </si>
+  <si>
+    <t>UT(0-1-13)</t>
+  </si>
+  <si>
+    <t>UT(0-1-14)</t>
+  </si>
+  <si>
+    <t>UT(0-6-7)</t>
+  </si>
+  <si>
+    <t>UT(1-0-9)</t>
+  </si>
+  <si>
+    <t>UT(0-3-13)</t>
   </si>
 </sst>
 </file>
@@ -2380,7 +2404,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2727,12 +2751,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K135"/>
+  <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A79" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
+      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2893,7 +2917,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>48.554000000000002</v>
+        <v>44.972999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4376,11 +4400,15 @@
       <c r="A79" s="40">
         <v>44621</v>
       </c>
-      <c r="B79" s="20"/>
+      <c r="B79" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="C79" s="13">
         <v>1.25</v>
       </c>
-      <c r="D79" s="39"/>
+      <c r="D79" s="39">
+        <v>0.40200000000000002</v>
+      </c>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
       <c r="G79" s="13">
@@ -4396,11 +4424,15 @@
       <c r="A80" s="40">
         <v>44652</v>
       </c>
-      <c r="B80" s="20"/>
+      <c r="B80" s="20" t="s">
+        <v>89</v>
+      </c>
       <c r="C80" s="13">
         <v>1.25</v>
       </c>
-      <c r="D80" s="39"/>
+      <c r="D80" s="39">
+        <v>1.0189999999999999</v>
+      </c>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
       <c r="G80" s="13">
@@ -4416,11 +4448,15 @@
       <c r="A81" s="40">
         <v>44682</v>
       </c>
-      <c r="B81" s="20"/>
+      <c r="B81" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="C81" s="13">
         <v>1.25</v>
       </c>
-      <c r="D81" s="39"/>
+      <c r="D81" s="39">
+        <v>0.76500000000000001</v>
+      </c>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
       <c r="G81" s="13">
@@ -4436,11 +4472,15 @@
       <c r="A82" s="40">
         <v>44713</v>
       </c>
-      <c r="B82" s="20"/>
+      <c r="B82" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="C82" s="13">
         <v>1.25</v>
       </c>
-      <c r="D82" s="39"/>
+      <c r="D82" s="39">
+        <v>0.15400000000000003</v>
+      </c>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
       <c r="G82" s="13">
@@ -4456,11 +4496,15 @@
       <c r="A83" s="40">
         <v>44743</v>
       </c>
-      <c r="B83" s="20"/>
+      <c r="B83" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="C83" s="13">
         <v>1.25</v>
       </c>
-      <c r="D83" s="39"/>
+      <c r="D83" s="39">
+        <v>0.15200000000000002</v>
+      </c>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
       <c r="G83" s="13">
@@ -4476,11 +4520,15 @@
       <c r="A84" s="40">
         <v>44774</v>
       </c>
-      <c r="B84" s="20"/>
+      <c r="B84" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="C84" s="13">
         <v>1.25</v>
       </c>
-      <c r="D84" s="39"/>
+      <c r="D84" s="39">
+        <v>0.50600000000000001</v>
+      </c>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
       <c r="G84" s="13">
@@ -4519,37 +4567,37 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40">
-        <v>44835</v>
-      </c>
-      <c r="B86" s="20"/>
-      <c r="C86" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D86" s="39"/>
+      <c r="A86" s="40"/>
+      <c r="B86" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" s="13"/>
+      <c r="D86" s="39">
+        <v>6.200000000000002E-2</v>
+      </c>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G86" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20"/>
+      <c r="K86" s="49"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C87" s="13">
         <v>1.25</v>
       </c>
       <c r="D87" s="39">
-        <v>7.9000000000000015E-2</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
@@ -4564,15 +4612,17 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C88" s="13">
         <v>1.25</v>
       </c>
-      <c r="D88" s="39"/>
+      <c r="D88" s="39">
+        <v>7.9000000000000015E-2</v>
+      </c>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
       <c r="G88" s="13">
@@ -4582,40 +4632,40 @@
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="49">
-        <v>44918</v>
-      </c>
+      <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>44896</v>
+      </c>
       <c r="B89" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C89" s="13"/>
-      <c r="D89" s="39">
-        <v>4</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="49" t="s">
-        <v>76</v>
+      <c r="K89" s="49">
+        <v>44918</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
@@ -4626,16 +4676,18 @@
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="49"/>
+      <c r="K90" s="49" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="39">
-        <v>0.17100000000000001</v>
+        <v>1</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
@@ -4649,12 +4701,14 @@
       <c r="K91" s="49"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="B92" s="20"/>
+      <c r="A92" s="40"/>
+      <c r="B92" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="C92" s="13"/>
-      <c r="D92" s="39"/>
+      <c r="D92" s="39">
+        <v>0.17100000000000001</v>
+      </c>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
       <c r="G92" s="13" t="str">
@@ -4664,100 +4718,96 @@
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
+      <c r="K92" s="49"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B93" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C93" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D93" s="39">
-        <v>5</v>
-      </c>
+      <c r="A93" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B93" s="20"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="39"/>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G93" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="20" t="s">
-        <v>77</v>
-      </c>
+      <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>44927</v>
+      </c>
       <c r="B94" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C94" s="13"/>
-      <c r="D94" s="39"/>
+        <v>53</v>
+      </c>
+      <c r="C94" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D94" s="39">
+        <v>5</v>
+      </c>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H94" s="39">
-        <v>1</v>
-      </c>
+      <c r="G94" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H94" s="39"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="20"/>
+      <c r="K94" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40">
-        <v>44958</v>
-      </c>
+      <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C95" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D95" s="39">
-        <v>5</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C95" s="13"/>
+      <c r="D95" s="39"/>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H95" s="39"/>
+      <c r="G95" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H95" s="39">
+        <v>1</v>
+      </c>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>44958</v>
+      </c>
       <c r="B96" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C96" s="13"/>
-      <c r="D96" s="39"/>
+        <v>71</v>
+      </c>
+      <c r="C96" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D96" s="39">
+        <v>5</v>
+      </c>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H96" s="39">
-        <v>1</v>
-      </c>
+      <c r="G96" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H96" s="39"/>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="49">
-        <v>44977</v>
+      <c r="K96" s="20" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -4779,47 +4829,47 @@
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
       <c r="K97" s="49">
-        <v>44970</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40">
-        <v>44986</v>
-      </c>
+      <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C98" s="13">
-        <v>1.25</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C98" s="13"/>
       <c r="D98" s="39"/>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G98" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H98" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="20" t="s">
-        <v>79</v>
+      <c r="K98" s="49">
+        <v>44970</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>44986</v>
+      </c>
       <c r="B99" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C99" s="13"/>
+      <c r="C99" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D99" s="39"/>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G99" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H99" s="39">
         <v>2</v>
@@ -4827,14 +4877,14 @@
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
       <c r="K99" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B100" s="20"/>
+      <c r="A100" s="40"/>
+      <c r="B100" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
       <c r="E100" s="9"/>
@@ -4843,14 +4893,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H100" s="39"/>
+      <c r="H100" s="39">
+        <v>2</v>
+      </c>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="20"/>
+      <c r="K100" s="20" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4868,7 +4922,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4886,7 +4940,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4904,7 +4958,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4922,7 +4976,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4940,7 +4994,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4958,7 +5012,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4976,7 +5030,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4994,7 +5048,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5012,7 +5066,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5030,7 +5084,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5048,7 +5102,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5066,7 +5120,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5084,7 +5138,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5102,7 +5156,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5120,7 +5174,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5138,7 +5192,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5156,7 +5210,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5174,7 +5228,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5192,7 +5246,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5210,7 +5264,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5228,7 +5282,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5246,7 +5300,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5264,7 +5318,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5282,7 +5336,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5299,7 +5353,9 @@
       <c r="K125" s="20"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="40"/>
+      <c r="A126" s="40">
+        <v>45778</v>
+      </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
@@ -5443,20 +5499,36 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="41"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="43"/>
+      <c r="A135" s="40"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="42" t="str">
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H135" s="43"/>
+      <c r="H135" s="39"/>
       <c r="I135" s="9"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="15"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="41"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="43"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5570,13 +5642,15 @@
         <v>3.2210000000000001</v>
       </c>
       <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="E3" s="11">
+        <v>3</v>
+      </c>
       <c r="F3" s="11">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>7.9000000000000015E-2</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
